--- a/Spreadsheet_v2.xlsx
+++ b/Spreadsheet_v2.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="290">
   <si>
     <t>Last Name</t>
   </si>
@@ -47,9 +47,6 @@
     <t>JoelOsteen</t>
   </si>
   <si>
-    <t>312K</t>
-  </si>
-  <si>
     <t>Furtick</t>
   </si>
   <si>
@@ -77,9 +74,6 @@
     <t>Michael</t>
   </si>
   <si>
-    <t>Mike</t>
-  </si>
-  <si>
     <t>Downey</t>
   </si>
   <si>
@@ -104,12 +98,6 @@
     <t>BillyGraham</t>
   </si>
   <si>
-    <t>321K</t>
-  </si>
-  <si>
-    <t>1.84M</t>
-  </si>
-  <si>
     <t>Warren</t>
   </si>
   <si>
@@ -119,18 +107,6 @@
     <t>RickWarren</t>
   </si>
   <si>
-    <t>Former Governor/ Bapstist Minister</t>
-  </si>
-  <si>
-    <t>Huckabee</t>
-  </si>
-  <si>
-    <t>GovMikeHuckabee</t>
-  </si>
-  <si>
-    <t>490K</t>
-  </si>
-  <si>
     <t>Liberty University President</t>
   </si>
   <si>
@@ -149,9 +125,6 @@
     <t>TV Producer</t>
   </si>
   <si>
-    <t>4.05M</t>
-  </si>
-  <si>
     <t>Meyer</t>
   </si>
   <si>
@@ -170,9 +143,6 @@
     <t>Southern Baptist Convention President</t>
   </si>
   <si>
-    <t>25.3K</t>
-  </si>
-  <si>
     <t>RonnieFloyd</t>
   </si>
   <si>
@@ -185,9 +155,6 @@
     <t>Pastor and CEO</t>
   </si>
   <si>
-    <t>238K</t>
-  </si>
-  <si>
     <t>PastorJohnHagee</t>
   </si>
   <si>
@@ -209,9 +176,6 @@
     <t>Author and Minister</t>
   </si>
   <si>
-    <t>525K</t>
-  </si>
-  <si>
     <t>Driscoll</t>
   </si>
   <si>
@@ -221,15 +185,6 @@
     <t>PastorMark</t>
   </si>
   <si>
-    <t>Tebow</t>
-  </si>
-  <si>
-    <t>TimTebow</t>
-  </si>
-  <si>
-    <t>Football Player</t>
-  </si>
-  <si>
     <t>Singer</t>
   </si>
   <si>
@@ -254,9 +209,6 @@
     <t>Martial Artist and Actor</t>
   </si>
   <si>
-    <t>106K</t>
-  </si>
-  <si>
     <t>Norris</t>
   </si>
   <si>
@@ -278,9 +230,6 @@
     <t>DanCathy</t>
   </si>
   <si>
-    <t>53.8K</t>
-  </si>
-  <si>
     <t>Cameron</t>
   </si>
   <si>
@@ -290,9 +239,6 @@
     <t>Actor</t>
   </si>
   <si>
-    <t>61.3K</t>
-  </si>
-  <si>
     <t>KirkCameron</t>
   </si>
   <si>
@@ -308,21 +254,9 @@
     <t>Bubbawatson</t>
   </si>
   <si>
-    <t>1.72M</t>
-  </si>
-  <si>
-    <t>Politician and Activist</t>
-  </si>
-  <si>
-    <t>Bauer</t>
-  </si>
-  <si>
     <t>Gary</t>
   </si>
   <si>
-    <t>GaryLBauer</t>
-  </si>
-  <si>
     <t>Former Football Coach</t>
   </si>
   <si>
@@ -341,18 +275,12 @@
     <t>Johnmacarthur</t>
   </si>
   <si>
-    <t>133K</t>
-  </si>
-  <si>
     <t>Swindoll</t>
   </si>
   <si>
     <t>Chuckswindoll</t>
   </si>
   <si>
-    <t>104K</t>
-  </si>
-  <si>
     <t>Chapman</t>
   </si>
   <si>
@@ -362,9 +290,6 @@
     <t>Author</t>
   </si>
   <si>
-    <t>191K</t>
-  </si>
-  <si>
     <t>Andrews</t>
   </si>
   <si>
@@ -386,9 +311,6 @@
     <t>Sarcasticluther</t>
   </si>
   <si>
-    <t>123K</t>
-  </si>
-  <si>
     <t>Professional Baseball Player</t>
   </si>
   <si>
@@ -425,9 +347,6 @@
     <t>MW55</t>
   </si>
   <si>
-    <t>386K</t>
-  </si>
-  <si>
     <t>Stock Car Racing Driver</t>
   </si>
   <si>
@@ -440,9 +359,6 @@
     <t>Jasonkeithallen</t>
   </si>
   <si>
-    <t>11.1K</t>
-  </si>
-  <si>
     <t>Barton</t>
   </si>
   <si>
@@ -455,9 +371,6 @@
     <t>DavidBartonWB</t>
   </si>
   <si>
-    <t>28K</t>
-  </si>
-  <si>
     <t>Dobson</t>
   </si>
   <si>
@@ -494,9 +407,6 @@
     <t>BillHybels</t>
   </si>
   <si>
-    <t>267K</t>
-  </si>
-  <si>
     <t>Jakes</t>
   </si>
   <si>
@@ -578,9 +488,6 @@
     <t>Drtonyevans</t>
   </si>
   <si>
-    <t>557K</t>
-  </si>
-  <si>
     <t>Giglio</t>
   </si>
   <si>
@@ -608,12 +515,6 @@
     <t>timkellernyc</t>
   </si>
   <si>
-    <t>278K</t>
-  </si>
-  <si>
-    <t>1.09M</t>
-  </si>
-  <si>
     <t>Hip Hop Artist</t>
   </si>
   <si>
@@ -623,9 +524,6 @@
     <t>lecrae</t>
   </si>
   <si>
-    <t>128K</t>
-  </si>
-  <si>
     <t>Mohler</t>
   </si>
   <si>
@@ -638,9 +536,6 @@
     <t>Pastor and Baptist Seminary President</t>
   </si>
   <si>
-    <t>724K</t>
-  </si>
-  <si>
     <t>Beth</t>
   </si>
   <si>
@@ -653,9 +548,6 @@
     <t>Ministry Founder and Author</t>
   </si>
   <si>
-    <t>860K</t>
-  </si>
-  <si>
     <t>Piper</t>
   </si>
   <si>
@@ -686,15 +578,9 @@
     <t>Stanley</t>
   </si>
   <si>
-    <t>543K</t>
-  </si>
-  <si>
     <t>AndyStanley</t>
   </si>
   <si>
-    <t>53.3K</t>
-  </si>
-  <si>
     <t>Ray</t>
   </si>
   <si>
@@ -722,9 +608,6 @@
     <t>Max</t>
   </si>
   <si>
-    <t>1.29M</t>
-  </si>
-  <si>
     <t>Judah</t>
   </si>
   <si>
@@ -737,9 +620,6 @@
     <t>MaxLucado</t>
   </si>
   <si>
-    <t>144K</t>
-  </si>
-  <si>
     <t>Scott</t>
   </si>
   <si>
@@ -758,9 +638,6 @@
     <t>Perrynoble</t>
   </si>
   <si>
-    <t>170K</t>
-  </si>
-  <si>
     <t>Author and Motivational Speaker</t>
   </si>
   <si>
@@ -773,12 +650,6 @@
     <t>Realrobbell</t>
   </si>
   <si>
-    <t>159K</t>
-  </si>
-  <si>
-    <t>153K</t>
-  </si>
-  <si>
     <t>Pete</t>
   </si>
   <si>
@@ -800,9 +671,6 @@
     <t>RonEdmondson</t>
   </si>
   <si>
-    <t>137K</t>
-  </si>
-  <si>
     <t>Jamesmacdonald</t>
   </si>
   <si>
@@ -818,9 +686,6 @@
     <t>brianjohnsonM</t>
   </si>
   <si>
-    <t>103K</t>
-  </si>
-  <si>
     <t>Singer and Worship Leader</t>
   </si>
   <si>
@@ -842,18 +707,12 @@
     <t>CJMahaney</t>
   </si>
   <si>
-    <t>53.4K</t>
-  </si>
-  <si>
     <t>Anderson</t>
   </si>
   <si>
     <t>AndersonSpeaks</t>
   </si>
   <si>
-    <t>49.4K</t>
-  </si>
-  <si>
     <t>Pastor and Activist</t>
   </si>
   <si>
@@ -863,9 +722,6 @@
     <t>Brianmclaren</t>
   </si>
   <si>
-    <t>48K</t>
-  </si>
-  <si>
     <t>Greg</t>
   </si>
   <si>
@@ -875,9 +731,6 @@
     <t>Gregsurratt</t>
   </si>
   <si>
-    <t>32.6K</t>
-  </si>
-  <si>
     <t>DeYoung</t>
   </si>
   <si>
@@ -887,12 +740,6 @@
     <t>RevKevDeYoung</t>
   </si>
   <si>
-    <t>91.2K</t>
-  </si>
-  <si>
-    <t>32.2K</t>
-  </si>
-  <si>
     <t>George</t>
   </si>
   <si>
@@ -914,9 +761,6 @@
     <t>Chairman of Champion Network of Pastors</t>
   </si>
   <si>
-    <t>32.1K</t>
-  </si>
-  <si>
     <t>Eric</t>
   </si>
   <si>
@@ -926,18 +770,12 @@
     <t>Pastoremase</t>
   </si>
   <si>
-    <t>23.7K</t>
-  </si>
-  <si>
     <t>Bezet</t>
   </si>
   <si>
     <t>rick_bezet</t>
   </si>
   <si>
-    <t>33.9K</t>
-  </si>
-  <si>
     <t>Parsons</t>
   </si>
   <si>
@@ -947,9 +785,6 @@
     <t>BurkParsons</t>
   </si>
   <si>
-    <t>12.5K</t>
-  </si>
-  <si>
     <t>Bob</t>
   </si>
   <si>
@@ -968,18 +803,12 @@
     <t>larrystockstill</t>
   </si>
   <si>
-    <t>19.8K</t>
-  </si>
-  <si>
     <t>Douglas</t>
   </si>
   <si>
     <t>douglaswils</t>
   </si>
   <si>
-    <t>16.2K</t>
-  </si>
-  <si>
     <t>Fry</t>
   </si>
   <si>
@@ -998,99 +827,12 @@
     <t>joechampion</t>
   </si>
   <si>
-    <t>15.9K</t>
-  </si>
-  <si>
     <t>Robertson</t>
   </si>
   <si>
-    <t>2.42M</t>
-  </si>
-  <si>
     <t>TV Personality</t>
   </si>
   <si>
-    <t>4.68M</t>
-  </si>
-  <si>
-    <t>313K</t>
-  </si>
-  <si>
-    <t>644K</t>
-  </si>
-  <si>
-    <t>140K</t>
-  </si>
-  <si>
-    <t>19.7K</t>
-  </si>
-  <si>
-    <t>720K</t>
-  </si>
-  <si>
-    <t>3.33M</t>
-  </si>
-  <si>
-    <t>67.9K</t>
-  </si>
-  <si>
-    <t>25.1K</t>
-  </si>
-  <si>
-    <t>49.9K</t>
-  </si>
-  <si>
-    <t>45.8K</t>
-  </si>
-  <si>
-    <t>45.2K</t>
-  </si>
-  <si>
-    <t>39.1K</t>
-  </si>
-  <si>
-    <t>16.4K</t>
-  </si>
-  <si>
-    <t>21.3K</t>
-  </si>
-  <si>
-    <t>64.3K</t>
-  </si>
-  <si>
-    <t>383K</t>
-  </si>
-  <si>
-    <t>13.4K</t>
-  </si>
-  <si>
-    <t>83.2K</t>
-  </si>
-  <si>
-    <t>172K</t>
-  </si>
-  <si>
-    <t>283K</t>
-  </si>
-  <si>
-    <t>753K</t>
-  </si>
-  <si>
-    <t>227K</t>
-  </si>
-  <si>
-    <t>40.2K</t>
-  </si>
-  <si>
-    <t>376K</t>
-  </si>
-  <si>
-    <t>77.9K</t>
-  </si>
-  <si>
-    <t>30K</t>
-  </si>
-  <si>
     <t>Businessman</t>
   </si>
   <si>
@@ -1100,21 +842,12 @@
     <t>Trump</t>
   </si>
   <si>
-    <t>11.2M</t>
-  </si>
-  <si>
-    <t>Politica Activist</t>
-  </si>
-  <si>
     <t>Reed</t>
   </si>
   <si>
     <t>Ralph</t>
   </si>
   <si>
-    <t>11.4K</t>
-  </si>
-  <si>
     <t>Ralphreed</t>
   </si>
   <si>
@@ -1133,12 +866,6 @@
     <t>Stetzer</t>
   </si>
   <si>
-    <t>197K</t>
-  </si>
-  <si>
-    <t>102K</t>
-  </si>
-  <si>
     <t>Drmoore</t>
   </si>
   <si>
@@ -1148,9 +875,6 @@
     <t>Author and CEO of LifeWay Christian Resources</t>
   </si>
   <si>
-    <t>228K</t>
-  </si>
-  <si>
     <t>ThomRainer</t>
   </si>
   <si>
@@ -1167,6 +891,9 @@
   </si>
   <si>
     <t>williebosshog</t>
+  </si>
+  <si>
+    <t>Political Activist</t>
   </si>
 </sst>
 </file>
@@ -1540,10 +1267,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F92"/>
+  <dimension ref="A1:F89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E92"/>
+      <selection activeCell="E78" sqref="E78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1567,7 +1294,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -1575,401 +1302,401 @@
     </row>
     <row r="2" spans="1:6" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>135</v>
+        <v>108</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>136</v>
+        <v>109</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>137</v>
+        <v>110</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>138</v>
+        <v>80</v>
+      </c>
+      <c r="E2" s="5">
+        <v>11100</v>
       </c>
       <c r="F2" s="4"/>
     </row>
     <row r="3" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>273</v>
+        <v>227</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>140</v>
+        <v>112</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>274</v>
+        <v>228</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>275</v>
+        <v>91</v>
+      </c>
+      <c r="E3" s="3">
+        <v>49400</v>
       </c>
       <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>112</v>
+        <v>87</v>
+      </c>
+      <c r="E4" s="5">
+        <v>191000</v>
       </c>
       <c r="F4" s="4"/>
     </row>
     <row r="5" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>139</v>
+        <v>111</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>140</v>
+        <v>112</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>142</v>
+        <v>114</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>143</v>
+        <v>113</v>
+      </c>
+      <c r="E5" s="5">
+        <v>28000</v>
       </c>
       <c r="F5" s="4"/>
     </row>
     <row r="6" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>96</v>
+        <v>205</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>97</v>
+        <v>206</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>98</v>
+        <v>207</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="E6" s="6">
-        <v>4689</v>
+        <v>204</v>
+      </c>
+      <c r="E6" s="3">
+        <v>159000</v>
       </c>
       <c r="F6" s="4"/>
     </row>
     <row r="7" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>247</v>
+        <v>25</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>249</v>
+        <v>14</v>
+      </c>
+      <c r="E7" s="3">
+        <v>23700</v>
       </c>
       <c r="F7" s="4"/>
     </row>
     <row r="8" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>301</v>
+        <v>92</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>29</v>
+        <v>93</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>302</v>
+        <v>94</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>300</v>
+        <v>91</v>
+      </c>
+      <c r="E8" s="5">
+        <v>45800</v>
       </c>
       <c r="F8" s="4"/>
     </row>
     <row r="9" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>117</v>
+        <v>68</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>118</v>
+        <v>69</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>119</v>
+        <v>71</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>338</v>
+        <v>70</v>
+      </c>
+      <c r="E9" s="5">
+        <v>61300</v>
       </c>
       <c r="F9" s="4"/>
     </row>
     <row r="10" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>88</v>
+        <v>64</v>
+      </c>
+      <c r="E10" s="5">
+        <v>53800</v>
       </c>
       <c r="F10" s="4"/>
     </row>
     <row r="11" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>81</v>
+        <v>265</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>82</v>
+        <v>5</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>83</v>
+        <v>266</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>84</v>
+        <v>14</v>
+      </c>
+      <c r="E11" s="3">
+        <v>15900</v>
       </c>
       <c r="F11" s="4"/>
     </row>
     <row r="12" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>322</v>
+        <v>142</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>5</v>
+        <v>143</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>323</v>
+        <v>144</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>324</v>
+        <v>14</v>
+      </c>
+      <c r="E12" s="5">
+        <v>383000</v>
       </c>
       <c r="F12" s="4"/>
     </row>
     <row r="13" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>172</v>
+        <v>85</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>173</v>
+        <v>76</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>174</v>
+        <v>86</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>344</v>
+        <v>87</v>
+      </c>
+      <c r="E13" s="5">
+        <v>49900</v>
       </c>
       <c r="F13" s="4"/>
     </row>
     <row r="14" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>109</v>
+        <v>186</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>97</v>
+        <v>185</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>110</v>
+        <v>187</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>337</v>
+        <v>14</v>
+      </c>
+      <c r="E14" s="3">
+        <v>53300</v>
       </c>
       <c r="F14" s="4"/>
     </row>
     <row r="15" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>224</v>
+        <v>145</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>223</v>
+        <v>146</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>225</v>
+        <v>147</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>222</v>
+        <v>91</v>
+      </c>
+      <c r="E15" s="6">
+        <v>13400</v>
       </c>
       <c r="F15" s="4"/>
     </row>
     <row r="16" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>175</v>
+        <v>235</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>176</v>
+        <v>236</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>177</v>
+        <v>237</v>
       </c>
       <c r="D16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="3">
+        <v>91200</v>
+      </c>
+      <c r="F16" s="4"/>
+    </row>
+    <row r="17" spans="1:6" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="E16" s="6" t="s">
-        <v>345</v>
-      </c>
-      <c r="F16" s="4"/>
-    </row>
-    <row r="17" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>285</v>
-      </c>
       <c r="C17" s="3" t="s">
-        <v>286</v>
+        <v>118</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>287</v>
+        <v>117</v>
+      </c>
+      <c r="E17" s="5">
+        <v>39100</v>
       </c>
       <c r="F17" s="4"/>
     </row>
-    <row r="18" spans="1:6" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>340</v>
+        <v>148</v>
+      </c>
+      <c r="E18" s="5">
+        <v>83200</v>
       </c>
       <c r="F18" s="4"/>
     </row>
     <row r="19" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>179</v>
+        <v>16</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>180</v>
+        <v>17</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>181</v>
+        <v>18</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>346</v>
+        <v>32</v>
+      </c>
+      <c r="E19" s="5">
+        <v>140000</v>
       </c>
       <c r="F19" s="4"/>
     </row>
     <row r="20" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>331</v>
+        <v>14</v>
+      </c>
+      <c r="E20" s="5">
+        <v>525000</v>
       </c>
       <c r="F20" s="4"/>
     </row>
     <row r="21" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>62</v>
+        <v>213</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>63</v>
+        <v>212</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>64</v>
+        <v>214</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>61</v>
+        <v>211</v>
+      </c>
+      <c r="E21" s="3">
+        <v>137000</v>
       </c>
       <c r="F21" s="4"/>
     </row>
     <row r="22" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>256</v>
+        <v>152</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>255</v>
+        <v>57</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>257</v>
+        <v>153</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>258</v>
+        <v>91</v>
+      </c>
+      <c r="E22" s="6">
+        <v>172000</v>
       </c>
       <c r="F22" s="4"/>
     </row>
-    <row r="23" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>182</v>
+        <v>28</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>72</v>
+        <v>29</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>183</v>
+        <v>30</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>347</v>
+        <v>27</v>
+      </c>
+      <c r="E23" s="5">
+        <v>19700</v>
       </c>
       <c r="F23" s="4"/>
     </row>
-    <row r="24" spans="1:6" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>36</v>
       </c>
@@ -1977,1240 +1704,1186 @@
         <v>37</v>
       </c>
       <c r="C24" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D24" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>332</v>
+      <c r="E24" s="5">
+        <v>25300</v>
       </c>
       <c r="F24" s="4"/>
     </row>
     <row r="25" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>45</v>
+        <v>261</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>46</v>
+        <v>143</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>49</v>
+        <v>262</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>48</v>
+        <v>14</v>
+      </c>
+      <c r="E25" s="3">
+        <v>16200</v>
       </c>
       <c r="F25" s="4"/>
     </row>
     <row r="26" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>318</v>
+        <v>7</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>173</v>
+        <v>8</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>319</v>
+        <v>9</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>317</v>
+        <v>14</v>
+      </c>
+      <c r="E26" s="3">
+        <v>313000</v>
       </c>
       <c r="F26" s="4"/>
     </row>
     <row r="27" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>8</v>
+        <v>238</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>9</v>
+        <v>239</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>10</v>
+        <v>240</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>329</v>
+        <v>14</v>
+      </c>
+      <c r="E27" s="3">
+        <v>32200</v>
       </c>
       <c r="F27" s="4"/>
     </row>
     <row r="28" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>289</v>
+        <v>121</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>290</v>
+        <v>15</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>291</v>
+        <v>120</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>288</v>
+        <v>119</v>
+      </c>
+      <c r="E28" s="5">
+        <v>16400</v>
       </c>
       <c r="F28" s="4"/>
     </row>
     <row r="29" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>150</v>
+        <v>78</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>149</v>
+        <v>79</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>341</v>
+        <v>77</v>
+      </c>
+      <c r="E29" s="6">
+        <v>5716</v>
       </c>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>100</v>
+        <v>154</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>5</v>
+        <v>155</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>101</v>
+        <v>156</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="E30" s="6">
-        <v>5716</v>
+        <v>14</v>
+      </c>
+      <c r="E30" s="3">
+        <v>557000</v>
       </c>
       <c r="F30" s="4"/>
     </row>
-    <row r="31" spans="1:6" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>185</v>
+        <v>10</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>186</v>
+        <v>22</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>187</v>
+        <v>23</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>184</v>
+        <v>19</v>
+      </c>
+      <c r="E31" s="5">
+        <v>321000</v>
       </c>
       <c r="F31" s="4"/>
     </row>
-    <row r="32" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B32" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>25</v>
-      </c>
       <c r="D32" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>26</v>
+        <v>19</v>
+      </c>
+      <c r="E32" s="3">
+        <v>644000</v>
       </c>
       <c r="F32" s="4"/>
     </row>
-    <row r="33" spans="1:6" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>11</v>
+        <v>157</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>13</v>
+        <v>158</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>12</v>
+        <v>159</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>330</v>
+        <v>14</v>
+      </c>
+      <c r="E33" s="3">
+        <v>283000</v>
       </c>
       <c r="F33" s="4"/>
     </row>
     <row r="34" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>188</v>
+        <v>40</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>189</v>
+        <v>41</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>190</v>
+        <v>43</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>348</v>
+        <v>42</v>
+      </c>
+      <c r="E34" s="5">
+        <v>238000</v>
       </c>
       <c r="F34" s="4"/>
     </row>
     <row r="35" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>50</v>
+        <v>122</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>51</v>
+        <v>123</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>54</v>
+        <v>124</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>53</v>
+        <v>14</v>
+      </c>
+      <c r="E35" s="3">
+        <v>938</v>
       </c>
       <c r="F35" s="4"/>
     </row>
     <row r="36" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>151</v>
+        <v>188</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>152</v>
+        <v>189</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>153</v>
+        <v>190</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>15</v>
+        <v>191</v>
       </c>
       <c r="E36" s="3">
-        <v>938</v>
+        <v>40200</v>
       </c>
       <c r="F36" s="4"/>
     </row>
     <row r="37" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>226</v>
+        <v>20</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>227</v>
+        <v>21</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>228</v>
+        <v>287</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>351</v>
+        <v>14</v>
+      </c>
+      <c r="E37" s="6">
+        <v>1964</v>
       </c>
       <c r="F37" s="4"/>
     </row>
     <row r="38" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>22</v>
+        <v>222</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>23</v>
+        <v>221</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>379</v>
+        <v>223</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E38" s="6">
-        <v>1964</v>
+        <v>14</v>
+      </c>
+      <c r="E38" s="3">
+        <v>77900</v>
       </c>
       <c r="F38" s="4"/>
     </row>
     <row r="39" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>267</v>
+        <v>125</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>266</v>
+        <v>22</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>268</v>
+        <v>126</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>353</v>
+        <v>14</v>
+      </c>
+      <c r="E39" s="5">
+        <v>267000</v>
       </c>
       <c r="F39" s="4"/>
     </row>
     <row r="40" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>32</v>
+        <v>127</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>17</v>
+        <v>128</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>33</v>
+        <v>129</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>34</v>
+        <v>91</v>
+      </c>
+      <c r="E40" s="5">
+        <v>21300</v>
       </c>
       <c r="F40" s="4"/>
     </row>
     <row r="41" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>154</v>
+        <v>218</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>24</v>
+        <v>217</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>155</v>
+        <v>219</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E41" s="5" t="s">
-        <v>156</v>
+        <v>220</v>
+      </c>
+      <c r="E41" s="3">
+        <v>103000</v>
       </c>
       <c r="F41" s="4"/>
     </row>
     <row r="42" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>157</v>
+        <v>103</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>158</v>
+        <v>15</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>159</v>
+        <v>104</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>342</v>
+        <v>99</v>
+      </c>
+      <c r="E42" s="5">
+        <v>45200</v>
       </c>
       <c r="F42" s="4"/>
     </row>
     <row r="43" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>262</v>
+        <v>161</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>261</v>
+        <v>160</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>263</v>
+        <v>162</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>264</v>
+        <v>14</v>
+      </c>
+      <c r="E43" s="3">
+        <v>278000</v>
       </c>
       <c r="F43" s="4"/>
     </row>
     <row r="44" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>129</v>
+        <v>46</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>130</v>
+        <v>48</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="E44" s="5" t="s">
-        <v>339</v>
+        <v>49</v>
+      </c>
+      <c r="E44" s="6">
+        <v>1152</v>
       </c>
       <c r="F44" s="4"/>
     </row>
     <row r="45" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>192</v>
+        <v>130</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>191</v>
+        <v>131</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>193</v>
+        <v>132</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>194</v>
+        <v>133</v>
+      </c>
+      <c r="E45" s="6">
+        <v>2079</v>
       </c>
       <c r="F45" s="4"/>
     </row>
     <row r="46" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>57</v>
+        <v>192</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>58</v>
+        <v>193</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>59</v>
+        <v>197</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E46" s="6">
-        <v>1152</v>
+        <v>91</v>
+      </c>
+      <c r="E46" s="3">
+        <v>1290000</v>
       </c>
       <c r="F46" s="4"/>
     </row>
     <row r="47" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>160</v>
+        <v>81</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>161</v>
+        <v>41</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>162</v>
+        <v>82</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="E47" s="6">
-        <v>2079</v>
+        <v>80</v>
+      </c>
+      <c r="E47" s="5">
+        <v>133000</v>
       </c>
       <c r="F47" s="4"/>
     </row>
     <row r="48" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>231</v>
+        <v>116</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>236</v>
+        <v>215</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>232</v>
+        <v>14</v>
+      </c>
+      <c r="E48" s="3">
+        <v>312000</v>
       </c>
       <c r="F48" s="4"/>
     </row>
     <row r="49" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>103</v>
+        <v>224</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>51</v>
+        <v>225</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>104</v>
+        <v>226</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="E49" s="5" t="s">
-        <v>105</v>
+        <v>14</v>
+      </c>
+      <c r="E49" s="3">
+        <v>53400</v>
       </c>
       <c r="F49" s="4"/>
     </row>
     <row r="50" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>260</v>
+        <v>246</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>145</v>
+        <v>245</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E50" s="3" t="s">
-        <v>7</v>
+        <v>14</v>
+      </c>
+      <c r="E50" s="3">
+        <v>32100</v>
       </c>
       <c r="F50" s="4"/>
     </row>
     <row r="51" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>269</v>
+        <v>230</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>270</v>
+        <v>217</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>271</v>
+        <v>231</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>272</v>
+        <v>229</v>
+      </c>
+      <c r="E51" s="3">
+        <v>48000</v>
       </c>
       <c r="F51" s="4"/>
     </row>
     <row r="52" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>298</v>
+        <v>33</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>297</v>
+        <v>34</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>299</v>
+        <v>35</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>296</v>
+        <v>31</v>
+      </c>
+      <c r="E52" s="5">
+        <v>4050000</v>
       </c>
       <c r="F52" s="4"/>
     </row>
     <row r="53" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>277</v>
+        <v>166</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>261</v>
+        <v>167</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>278</v>
+        <v>168</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>279</v>
+        <v>169</v>
+      </c>
+      <c r="E53" s="3">
+        <v>128000</v>
       </c>
       <c r="F53" s="4"/>
     </row>
     <row r="54" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>42</v>
+        <v>171</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>43</v>
+        <v>170</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>44</v>
+        <v>172</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E54" s="5" t="s">
-        <v>41</v>
+        <v>173</v>
+      </c>
+      <c r="E54" s="3">
+        <v>724000</v>
       </c>
       <c r="F54" s="4"/>
     </row>
     <row r="55" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>200</v>
+        <v>171</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>201</v>
+        <v>276</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>202</v>
+        <v>280</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="E55" s="3" t="s">
-        <v>199</v>
+        <v>281</v>
+      </c>
+      <c r="E55" s="3">
+        <v>102000</v>
       </c>
       <c r="F55" s="4"/>
     </row>
     <row r="56" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>206</v>
+        <v>241</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>205</v>
+        <v>242</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>207</v>
+        <v>243</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>204</v>
+        <v>244</v>
+      </c>
+      <c r="E56" s="3">
+        <v>30000</v>
       </c>
       <c r="F56" s="4"/>
     </row>
     <row r="57" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>365</v>
+        <v>202</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>371</v>
+        <v>203</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>372</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>370</v>
+        <v>91</v>
+      </c>
+      <c r="E57" s="3">
+        <v>170000</v>
       </c>
       <c r="F57" s="4"/>
     </row>
     <row r="58" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>292</v>
+        <v>61</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>293</v>
+        <v>62</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>294</v>
+        <v>63</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>354</v>
+        <v>60</v>
+      </c>
+      <c r="E58" s="5">
+        <v>106000</v>
       </c>
       <c r="F58" s="4"/>
     </row>
     <row r="59" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>241</v>
+        <v>263</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>242</v>
+        <v>185</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>243</v>
+        <v>264</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>244</v>
+        <v>14</v>
+      </c>
+      <c r="E59" s="3">
+        <v>23700</v>
       </c>
       <c r="F59" s="4"/>
     </row>
     <row r="60" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>77</v>
+        <v>4</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>78</v>
+        <v>5</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>79</v>
+        <v>6</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="E60" s="5" t="s">
-        <v>76</v>
+        <v>14</v>
+      </c>
+      <c r="E60" s="3">
+        <v>4680000</v>
       </c>
       <c r="F60" s="4"/>
     </row>
     <row r="61" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>320</v>
+        <v>4</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>223</v>
+        <v>44</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>321</v>
+        <v>45</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E61" s="3" t="s">
-        <v>300</v>
+        <v>14</v>
+      </c>
+      <c r="E61" s="5">
+        <v>720000</v>
       </c>
       <c r="F61" s="4"/>
     </row>
     <row r="62" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>4</v>
+        <v>250</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>5</v>
+        <v>251</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>6</v>
+        <v>252</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>328</v>
+        <v>14</v>
+      </c>
+      <c r="E62" s="3">
+        <v>33900</v>
       </c>
       <c r="F62" s="4"/>
     </row>
     <row r="63" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>4</v>
+        <v>96</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>55</v>
+        <v>97</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>56</v>
+        <v>98</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E63" s="5" t="s">
-        <v>333</v>
+        <v>95</v>
+      </c>
+      <c r="E63" s="5">
+        <v>123000</v>
       </c>
       <c r="F63" s="4"/>
     </row>
     <row r="64" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>304</v>
+        <v>56</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>305</v>
+        <v>57</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>306</v>
+        <v>58</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E64" s="3" t="s">
-        <v>303</v>
+        <v>59</v>
+      </c>
+      <c r="E64" s="5">
+        <v>25100</v>
       </c>
       <c r="F64" s="4"/>
     </row>
     <row r="65" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>122</v>
+        <v>174</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>123</v>
+        <v>41</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>124</v>
+        <v>175</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="E65" s="5" t="s">
-        <v>120</v>
+        <v>91</v>
+      </c>
+      <c r="E65" s="3">
+        <v>860000</v>
       </c>
       <c r="F65" s="4"/>
     </row>
     <row r="66" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>71</v>
+        <v>285</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>72</v>
+        <v>284</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>73</v>
+        <v>283</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E66" s="5" t="s">
-        <v>336</v>
+        <v>282</v>
+      </c>
+      <c r="E66" s="3">
+        <v>228000</v>
       </c>
       <c r="F66" s="4"/>
     </row>
     <row r="67" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>210</v>
+        <v>177</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>51</v>
+        <v>178</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>211</v>
+        <v>179</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="E67" s="3" t="s">
-        <v>209</v>
+        <v>176</v>
+      </c>
+      <c r="E67" s="3">
+        <v>753000</v>
       </c>
       <c r="F67" s="4"/>
     </row>
     <row r="68" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>377</v>
+        <v>272</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>376</v>
+        <v>273</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>375</v>
+        <v>274</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>373</v>
-      </c>
-      <c r="E68" s="3" t="s">
-        <v>374</v>
+        <v>289</v>
+      </c>
+      <c r="E68" s="3">
+        <v>11400</v>
       </c>
       <c r="F68" s="4"/>
     </row>
     <row r="69" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>213</v>
+        <v>254</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>214</v>
+        <v>253</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>215</v>
+        <v>255</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="E69" s="3" t="s">
-        <v>349</v>
+        <v>14</v>
+      </c>
+      <c r="E69" s="3">
+        <v>12500</v>
       </c>
       <c r="F69" s="4"/>
     </row>
     <row r="70" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>360</v>
+        <v>267</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>361</v>
+        <v>239</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>363</v>
+        <v>288</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>359</v>
-      </c>
-      <c r="E70" s="3" t="s">
-        <v>362</v>
+        <v>268</v>
+      </c>
+      <c r="E70" s="3">
+        <v>2420000</v>
       </c>
       <c r="F70" s="4"/>
     </row>
     <row r="71" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>309</v>
+        <v>135</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>308</v>
+        <v>136</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>310</v>
+        <v>137</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E71" s="3" t="s">
-        <v>307</v>
+        <v>134</v>
+      </c>
+      <c r="E71" s="5">
+        <v>64300</v>
       </c>
       <c r="F71" s="4"/>
     </row>
     <row r="72" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>325</v>
+        <v>181</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>290</v>
+        <v>180</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>380</v>
+        <v>182</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>326</v>
+        <v>87</v>
+      </c>
+      <c r="E72" s="3">
+        <v>227000</v>
       </c>
       <c r="F72" s="4"/>
     </row>
     <row r="73" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>165</v>
+        <v>195</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>166</v>
+        <v>194</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>167</v>
+        <v>196</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="E73" s="5" t="s">
-        <v>343</v>
+        <v>14</v>
+      </c>
+      <c r="E73" s="3">
+        <v>376000</v>
       </c>
       <c r="F73" s="4"/>
     </row>
     <row r="74" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>217</v>
+        <v>183</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>216</v>
+        <v>89</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>218</v>
+        <v>184</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="E74" s="3" t="s">
-        <v>350</v>
+        <v>91</v>
+      </c>
+      <c r="E74" s="3">
+        <v>543000</v>
       </c>
       <c r="F74" s="4"/>
     </row>
     <row r="75" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>234</v>
+        <v>279</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>233</v>
+        <v>275</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>235</v>
+        <v>278</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E75" s="3" t="s">
-        <v>352</v>
+        <v>277</v>
+      </c>
+      <c r="E75" s="3">
+        <v>197000</v>
       </c>
       <c r="F75" s="4"/>
     </row>
     <row r="76" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>219</v>
+        <v>101</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>221</v>
+        <v>102</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="E76" s="3" t="s">
-        <v>220</v>
+        <v>99</v>
+      </c>
+      <c r="E76" s="6">
+        <v>4319</v>
       </c>
       <c r="F76" s="4"/>
     </row>
     <row r="77" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>368</v>
+        <v>257</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>364</v>
+        <v>256</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>367</v>
+        <v>258</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>366</v>
-      </c>
-      <c r="E77" s="3" t="s">
-        <v>369</v>
+        <v>14</v>
+      </c>
+      <c r="E77" s="3">
+        <v>19800</v>
       </c>
       <c r="F77" s="4"/>
     </row>
     <row r="78" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="E78" s="6">
-        <v>4319</v>
+        <v>4055</v>
       </c>
       <c r="F78" s="4"/>
     </row>
     <row r="79" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>312</v>
+        <v>233</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>311</v>
+        <v>232</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>313</v>
+        <v>234</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E79" s="3" t="s">
-        <v>314</v>
+        <v>14</v>
+      </c>
+      <c r="E79" s="3">
+        <v>32600</v>
       </c>
       <c r="F79" s="4"/>
     </row>
     <row r="80" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>169</v>
+        <v>55</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>170</v>
+        <v>15</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>168</v>
+        <v>54</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="E80" s="6">
-        <v>4055</v>
+        <v>53</v>
+      </c>
+      <c r="E80" s="5">
+        <v>67900</v>
       </c>
       <c r="F80" s="4"/>
     </row>
     <row r="81" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>281</v>
+        <v>83</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>280</v>
+        <v>62</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>282</v>
+        <v>84</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E81" s="3" t="s">
-        <v>283</v>
+        <v>14</v>
+      </c>
+      <c r="E81" s="5">
+        <v>104000</v>
       </c>
       <c r="F81" s="4"/>
     </row>
     <row r="82" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>70</v>
+        <v>271</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>16</v>
+        <v>270</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>69</v>
+        <v>286</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="E82" s="5" t="s">
-        <v>335</v>
+        <v>269</v>
+      </c>
+      <c r="E82" s="3">
+        <v>11200000</v>
       </c>
       <c r="F82" s="4"/>
     </row>
     <row r="83" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C83" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B83" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C83" s="3" t="s">
+      <c r="D83" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E83" s="5" t="s">
-        <v>108</v>
+      <c r="E83" s="5">
+        <v>386000</v>
       </c>
       <c r="F83" s="4"/>
     </row>
     <row r="84" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E84" s="5" t="s">
-        <v>334</v>
+        <v>14</v>
+      </c>
+      <c r="E84" s="5">
+        <v>1840000</v>
       </c>
       <c r="F84" s="4"/>
     </row>
     <row r="85" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>357</v>
+        <v>72</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>356</v>
+        <v>73</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>378</v>
+        <v>75</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="E85" s="3" t="s">
-        <v>358</v>
+        <v>74</v>
+      </c>
+      <c r="E85" s="5">
+        <v>1720000</v>
       </c>
       <c r="F85" s="4"/>
     </row>
     <row r="86" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>131</v>
+        <v>199</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>16</v>
+        <v>198</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>132</v>
+        <v>200</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="E86" s="5" t="s">
-        <v>133</v>
+        <v>14</v>
+      </c>
+      <c r="E86" s="3">
+        <v>144000</v>
       </c>
       <c r="F86" s="4"/>
     </row>
     <row r="87" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>28</v>
+        <v>209</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>29</v>
+        <v>259</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>30</v>
+        <v>260</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E87" s="5" t="s">
-        <v>27</v>
+        <v>14</v>
+      </c>
+      <c r="E87" s="3">
+        <v>23700</v>
       </c>
       <c r="F87" s="4"/>
     </row>
     <row r="88" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>90</v>
+        <v>209</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>91</v>
+        <v>208</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>93</v>
+        <v>210</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="E88" s="5" t="s">
-        <v>94</v>
+        <v>14</v>
+      </c>
+      <c r="E88" s="3">
+        <v>153000</v>
       </c>
       <c r="F88" s="4"/>
     </row>
     <row r="89" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="3" t="s">
-        <v>239</v>
-      </c>
+      <c r="A89" s="4"/>
       <c r="B89" s="3" t="s">
-        <v>238</v>
+        <v>164</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>240</v>
+        <v>165</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>237</v>
+        <v>163</v>
+      </c>
+      <c r="E89" s="3">
+        <v>1090000</v>
       </c>
       <c r="F89" s="4"/>
     </row>
-    <row r="90" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="B90" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="C90" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="D90" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E90" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="F90" s="4"/>
-    </row>
-    <row r="91" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="B91" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="C91" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="D91" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="F91" s="4"/>
-    </row>
-    <row r="92" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="4"/>
-      <c r="B92" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="C92" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="D92" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="E92" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="F92" s="4"/>
-    </row>
   </sheetData>
-  <sortState ref="A2:E92">
+  <sortState ref="A2:E89">
     <sortCondition ref="A1"/>
   </sortState>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
